--- a/reported-results/dacapo/table-mc-results.xlsx
+++ b/reported-results/dacapo/table-mc-results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Benchmark </t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">DS-Gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">asm-3.1 </t>
@@ -334,15 +340,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
@@ -376,10 +382,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.002851</v>
@@ -405,10 +417,16 @@
       <c r="I2" s="1" t="n">
         <v>0.805795835</v>
       </c>
+      <c r="J2" s="0" t="n">
+        <v>3044</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>3262</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.002169</v>
@@ -434,10 +452,16 @@
       <c r="I3" s="1" t="n">
         <v>1.293338347</v>
       </c>
+      <c r="J3" s="0" t="n">
+        <v>2404</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2473</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.001388</v>
@@ -463,10 +487,16 @@
       <c r="I4" s="1" t="n">
         <v>1.24184359</v>
       </c>
+      <c r="J4" s="0" t="n">
+        <v>1899</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1849</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.038324</v>
@@ -492,10 +522,16 @@
       <c r="I5" s="1" t="n">
         <v>17.860952683</v>
       </c>
+      <c r="J5" s="0" t="n">
+        <v>43685</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>43521</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.000841</v>
@@ -521,10 +557,16 @@
       <c r="I6" s="1" t="n">
         <v>0.223241016</v>
       </c>
+      <c r="J6" s="0" t="n">
+        <v>936</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>967</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.002567</v>
@@ -550,10 +592,16 @@
       <c r="I7" s="1" t="n">
         <v>0.970728677</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <v>2727</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>2973</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.000325</v>
@@ -579,10 +627,16 @@
       <c r="I8" s="1" t="n">
         <v>0.185827283</v>
       </c>
+      <c r="J8" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>437</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.007823</v>
@@ -608,10 +662,16 @@
       <c r="I9" s="1" t="n">
         <v>4.894634637</v>
       </c>
+      <c r="J9" s="0" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>9772</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.002498</v>
@@ -637,10 +697,16 @@
       <c r="I10" s="1" t="n">
         <v>1.493691923</v>
       </c>
+      <c r="J10" s="0" t="n">
+        <v>3216</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>3175</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00189</v>
@@ -666,10 +732,16 @@
       <c r="I11" s="1" t="n">
         <v>0.888226819</v>
       </c>
+      <c r="J11" s="0" t="n">
+        <v>2231</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>2303</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.000482</v>
@@ -695,10 +767,16 @@
       <c r="I12" s="1" t="n">
         <v>0.351454256</v>
       </c>
+      <c r="J12" s="0" t="n">
+        <v>689</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>677</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.000595</v>
@@ -724,10 +802,16 @@
       <c r="I13" s="1" t="n">
         <v>0.271856437</v>
       </c>
+      <c r="J13" s="0" t="n">
+        <v>776</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>758</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.008383</v>
@@ -753,10 +837,16 @@
       <c r="I14" s="1" t="n">
         <v>2.839508927</v>
       </c>
+      <c r="J14" s="0" t="n">
+        <v>8572</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>9328</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.000172</v>
@@ -782,10 +872,16 @@
       <c r="I15" s="1" t="n">
         <v>0.059313988</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.001039</v>
@@ -811,10 +907,16 @@
       <c r="I16" s="1" t="n">
         <v>0.473569089</v>
       </c>
+      <c r="J16" s="0" t="n">
+        <v>1293</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1311</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7.6E-005</v>
@@ -840,10 +942,16 @@
       <c r="I17" s="1" t="n">
         <v>0.036460431</v>
       </c>
+      <c r="J17" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.000304</v>
@@ -869,10 +977,16 @@
       <c r="I18" s="1" t="n">
         <v>0.025602262</v>
       </c>
+      <c r="J18" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.000335</v>
@@ -898,10 +1012,16 @@
       <c r="I19" s="1" t="n">
         <v>0.041736328</v>
       </c>
+      <c r="J19" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000168</v>
@@ -927,10 +1047,16 @@
       <c r="I20" s="1" t="n">
         <v>0.160454373</v>
       </c>
+      <c r="J20" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000168</v>
@@ -956,10 +1082,16 @@
       <c r="I21" s="1" t="n">
         <v>0.054080862</v>
       </c>
+      <c r="J21" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.000202</v>
@@ -985,10 +1117,16 @@
       <c r="I22" s="1" t="n">
         <v>0.068339715</v>
       </c>
+      <c r="J22" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.031978</v>
@@ -1014,10 +1152,16 @@
       <c r="I23" s="1" t="n">
         <v>16.995020227</v>
       </c>
+      <c r="J23" s="0" t="n">
+        <v>37865</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>37997</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.036931</v>
@@ -1043,10 +1187,16 @@
       <c r="I24" s="1" t="n">
         <v>14.926744497</v>
       </c>
+      <c r="J24" s="0" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>47039</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.005217</v>
@@ -1072,10 +1222,16 @@
       <c r="I25" s="1" t="n">
         <v>3.273222407</v>
       </c>
+      <c r="J25" s="0" t="n">
+        <v>6099</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>6126</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.014847</v>
@@ -1101,10 +1257,16 @@
       <c r="I26" s="1" t="n">
         <v>7.319992311</v>
       </c>
+      <c r="J26" s="0" t="n">
+        <v>16861</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>17021</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.004187</v>
@@ -1130,10 +1292,16 @@
       <c r="I27" s="1" t="n">
         <v>3.222252307</v>
       </c>
+      <c r="J27" s="0" t="n">
+        <v>5490</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>5375</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.001876</v>
@@ -1159,10 +1327,16 @@
       <c r="I28" s="1" t="n">
         <v>1.496946324</v>
       </c>
+      <c r="J28" s="0" t="n">
+        <v>2427</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>2387</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.001423</v>
@@ -1188,10 +1362,16 @@
       <c r="I29" s="1" t="n">
         <v>1.2877303</v>
       </c>
+      <c r="J29" s="0" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1902</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.003219</v>
@@ -1217,10 +1397,16 @@
       <c r="I30" s="1" t="n">
         <v>3.801425619</v>
       </c>
+      <c r="J30" s="0" t="n">
+        <v>4356</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>4067</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.028339</v>
@@ -1246,10 +1432,16 @@
       <c r="I31" s="1" t="n">
         <v>9.924711214</v>
       </c>
+      <c r="J31" s="0" t="n">
+        <v>24906</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>25795</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.003875</v>
@@ -1275,10 +1467,16 @@
       <c r="I32" s="1" t="n">
         <v>1.136590848</v>
       </c>
+      <c r="J32" s="0" t="n">
+        <v>4063</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>4413</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.032568</v>
@@ -1304,10 +1502,16 @@
       <c r="I33" s="1" t="n">
         <v>16.07630027</v>
       </c>
+      <c r="J33" s="0" t="n">
+        <v>37822</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>38672</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.010484</v>
@@ -1333,10 +1537,16 @@
       <c r="I34" s="1" t="n">
         <v>3.535480606</v>
       </c>
+      <c r="J34" s="0" t="n">
+        <v>11038</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>11751</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.00543</v>
@@ -1362,10 +1572,16 @@
       <c r="I35" s="1" t="n">
         <v>2.863286609</v>
       </c>
+      <c r="J35" s="0" t="n">
+        <v>6174</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>6447</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.000581</v>
@@ -1391,10 +1607,16 @@
       <c r="I36" s="1" t="n">
         <v>0.395465836</v>
       </c>
+      <c r="J36" s="0" t="n">
+        <v>738</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.033581</v>
@@ -1420,10 +1642,16 @@
       <c r="I37" s="1" t="n">
         <v>17.705312361</v>
       </c>
+      <c r="J37" s="0" t="n">
+        <v>35765</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>36946</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.05558</v>
@@ -1449,10 +1677,16 @@
       <c r="I38" s="1" t="n">
         <v>18.458620442</v>
       </c>
+      <c r="J38" s="0" t="n">
+        <v>50279</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>53639</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1.2E-005</v>
@@ -1478,10 +1712,16 @@
       <c r="I39" s="1" t="n">
         <v>0.045520323</v>
       </c>
+      <c r="J39" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1.1E-005</v>
@@ -1507,10 +1747,16 @@
       <c r="I40" s="1" t="n">
         <v>0.03569514</v>
       </c>
+      <c r="J40" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.016205</v>
@@ -1535,6 +1781,12 @@
       </c>
       <c r="I41" s="1" t="n">
         <v>8.745687717</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>17677</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>17890</v>
       </c>
     </row>
   </sheetData>

--- a/reported-results/dacapo/table-mc-results.xlsx
+++ b/reported-results/dacapo/table-mc-results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">Benchmark </t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Hitting-Gurobi</t>
   </si>
   <si>
+    <t xml:space="preserve">Hitting-Prism</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DS-Ours         </t>
   </si>
   <si>
@@ -55,124 +58,247 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
+    <t xml:space="preserve">Display-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xml-apis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xml-apis-1.3.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xml-1.3.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dacapo-luindex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d-luindex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dacapo-digest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d-digest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dacapo-xalan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d-xalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dacapo-tomcat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d-tomcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dacapo-lusearch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d-lusearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dacapo-lusearch-fix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d-lusearch-f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daytrader </t>
+  </si>
+  <si>
+    <t xml:space="preserve">daytrader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commons-daemon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-daemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commons-logging-1.0.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-logging-1.0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomcat-juli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomcat-j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constantine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">constantine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bootstrap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dacapo-h2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d-h2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avalon-framework-4.2.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avalon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jnr-posix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commons-logging </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jline-0.9.95-SNAPSHOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asm-commons-3.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asm-c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commons-codec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-codec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commons-io-1.3.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-io</t>
+  </si>
+  <si>
     <t xml:space="preserve">asm-3.1 </t>
   </si>
   <si>
-    <t xml:space="preserve">asm-commons-3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">avalon-framework-4.2.0 </t>
+    <t xml:space="preserve">asm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">junit-3.8.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">junit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucene-demos-2.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucene-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaxen-1.1.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaxen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaffl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaffl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serializer-2.7.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">serializer-2.7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson-1.1.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commons-httpclient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serializer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">serializer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">janino-2.5.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">janino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xmlgraphics-commons-1.3.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xmlgraphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucene-core-2.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucene-c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xalan-2.6.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derbyclient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">derbyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pmd-4.2.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pmd</t>
   </si>
   <si>
     <t xml:space="preserve">avrora-cvs-20091224 </t>
   </si>
   <si>
-    <t xml:space="preserve">bootstrap </t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-codec </t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-daemon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-httpclient </t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-io-1.3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-logging </t>
-  </si>
-  <si>
-    <t xml:space="preserve">commons-logging-1.0.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">constantine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson-1.1.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dacapo-digest </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dacapo-h2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dacapo-luindex </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dacapo-lusearch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dacapo-lusearch-fix </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dacapo-tomcat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dacapo-xalan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">daytrader </t>
-  </si>
-  <si>
-    <t xml:space="preserve">derbyclient </t>
+    <t xml:space="preserve">avrora</t>
   </si>
   <si>
     <t xml:space="preserve">eclipse </t>
   </si>
   <si>
-    <t xml:space="preserve">jaffl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">janino-2.5.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jaxen-1.1.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jline-0.9.95-SNAPSHOT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jnr-posix </t>
-  </si>
-  <si>
-    <t xml:space="preserve">junit-3.8.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lucene-core-2.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lucene-demos-2.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pmd-4.2.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">serializer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">serializer-2.7.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomcat-juli </t>
-  </si>
-  <si>
-    <t xml:space="preserve">xalan-2.6.0 </t>
+    <t xml:space="preserve">eclipse</t>
   </si>
   <si>
     <t xml:space="preserve">xerces_2_5_0 </t>
   </si>
   <si>
-    <t xml:space="preserve">xml-apis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">xml-apis-1.3.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">xmlgraphics-commons-1.3.1 </t>
+    <t xml:space="preserve">xerces</t>
   </si>
 </sst>
 </file>
@@ -206,12 +332,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF59C5C7"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -254,12 +386,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,7 +451,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF59C5C7"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -340,18 +476,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,10 +505,10 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -379,369 +517,435 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.002851</v>
+        <v>1.2E-005</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.136661</v>
+        <v>8E-006</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.782840064</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.003798</v>
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.040818851</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.06</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.136509</v>
+        <v>1.7E-005</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0.805795835</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>3044</v>
+        <v>6E-006</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.045520323</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3262</v>
+        <v>19</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.002169</v>
+        <v>1.1E-005</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.031624</v>
+        <v>7E-006</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1.262949582</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.002883</v>
+        <v>0.13</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.033981888</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.062</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.031655</v>
+        <v>1.7E-005</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>1.293338347</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>2404</v>
+        <v>8E-006</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0.03569514</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2473</v>
+        <v>19</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.001388</v>
+        <v>7.6E-005</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.003585</v>
+        <v>0.000198</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>1.165637627</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.001898</v>
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.018974375</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.118</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.002781</v>
+        <v>0.000104</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>1.24184359</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1899</v>
+        <v>0.000197</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.036460431</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1849</v>
+        <v>84</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.038324</v>
+        <v>0.000172</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.687196</v>
+        <v>0.000629</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>19.215156127</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.050081</v>
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.08733904</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.309</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.665728</v>
+        <v>0.000234</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>17.860952683</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>43685</v>
+        <v>0.000619</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0.059313988</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>43521</v>
+        <v>201</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.000841</v>
+        <v>0.000168</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.03084</v>
+        <v>0.000839</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.222587472</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.001114</v>
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0.11467006</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.373</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.030958</v>
+        <v>0.000224</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.223241016</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>936</v>
+        <v>0.000902</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0.054080862</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>967</v>
+        <v>219</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.002567</v>
+        <v>0.000168</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.033368</v>
+        <v>0.000619</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.998336759</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0.003983</v>
+        <v>0.17</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.119046759</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.514</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.034005</v>
+        <v>0.000238</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0.970728677</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>2727</v>
+        <v>0.000588</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.160454373</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>2973</v>
+        <v>250</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.000325</v>
+        <v>0.000304</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.001386</v>
+        <v>0.005655</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.218452549</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.000434</v>
+        <v>0.11</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.042602926</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.576</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.001392</v>
+        <v>0.00039</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0.185827283</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>453</v>
+        <v>0.00584</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0.025602262</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>437</v>
+        <v>282</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.007823</v>
+        <v>0.000335</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.059475</v>
+        <v>0.005722</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>5.601214754</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.010704</v>
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.036737106</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.427</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.057773</v>
+        <v>0.0004</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>4.894634637</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>9765</v>
+        <v>0.005723</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0.041736328</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>9772</v>
+        <v>282</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.002498</v>
+        <v>0.000202</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.012052</v>
+        <v>0.0013</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>1.599089077</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.003576</v>
+        <v>0.11</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.10136105</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.668</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.012098</v>
+        <v>0.000277</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1.493691923</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>3216</v>
+        <v>0.001405</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0.068339715</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3175</v>
+        <v>339</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.00189</v>
+        <v>0.000325</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.041266</v>
+        <v>0.001386</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0.816692227</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.002546</v>
+        <v>0.17</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.218452549</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.481</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.036825</v>
+        <v>0.000434</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0.888226819</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>2231</v>
+        <v>0.001392</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0.185827283</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>2303</v>
+        <v>453</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>437</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.000482</v>
@@ -752,136 +956,160 @@
       <c r="D12" s="0" t="n">
         <v>0.37</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>0.424454508</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>0.000666</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>0.002139</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="J12" s="2" t="n">
         <v>0.351454256</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>689</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>677</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.000595</v>
+        <v>0.000581</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.038972</v>
+        <v>0.003714</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>0.258795841</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.000816</v>
+        <v>0.28</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0.318194264</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1.613</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.03912</v>
+        <v>0.000783</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0.271856437</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>776</v>
+        <v>0.003701</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0.395465836</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>758</v>
+        <v>738</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>740</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.008383</v>
+        <v>0.000595</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.136497</v>
+        <v>0.038972</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>2.845112103</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0.011219</v>
+        <v>0.29</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0.258795841</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1.687</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.12941</v>
+        <v>0.000816</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>2.839508927</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>8572</v>
+        <v>0.03912</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0.271856437</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>9328</v>
+        <v>776</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.000172</v>
+        <v>0.000841</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.000629</v>
+        <v>0.03084</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>0.08733904</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.000234</v>
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.222587472</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>2.496</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.000619</v>
+        <v>0.001114</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>0.059313988</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>201</v>
+        <v>0.030958</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0.223241016</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>208</v>
+        <v>936</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>967</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.001039</v>
@@ -892,381 +1120,447 @@
       <c r="D16" s="0" t="n">
         <v>2.55</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>0.460824731</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
+        <v>2.223</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>0.001603</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>0.011775</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>5.81</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="J16" s="2" t="n">
         <v>0.473569089</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>1293</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>1311</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>7.6E-005</v>
+        <v>0.001388</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.000198</v>
+        <v>0.003585</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>0.018974375</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.000104</v>
+        <v>1.08</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1.165637627</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>4.485</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.000197</v>
+        <v>0.001898</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>0.036460431</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>84</v>
+        <v>0.002781</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>1.24184359</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>87</v>
+        <v>1899</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1849</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.000304</v>
+        <v>0.001423</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.005655</v>
+        <v>0.253852</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>0.042602926</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0.00039</v>
+        <v>1.23</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1.131653976</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>7.022</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.00584</v>
+        <v>0.001941</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>0.025602262</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>282</v>
+        <v>0.25623</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>1.2877303</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>300</v>
+        <v>2040</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>1902</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.000335</v>
+        <v>0.00189</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.005722</v>
+        <v>0.041266</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>0.036737106</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.0004</v>
+        <v>0.84</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0.816692227</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>4.255</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.005723</v>
+        <v>0.002546</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0.041736328</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>282</v>
+        <v>0.036825</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0.888226819</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>300</v>
+        <v>2231</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2303</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.000168</v>
+        <v>0.001876</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.000619</v>
+        <v>0.007932</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>0.119046759</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0.000238</v>
+        <v>1.41</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>1.396337542</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>8.372</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.000588</v>
+        <v>0.002578</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>0.160454373</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>250</v>
+        <v>0.00788</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>1.496946324</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>244</v>
+        <v>2427</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2387</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.000168</v>
+        <v>0.002169</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.000839</v>
+        <v>0.031624</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>0.11467006</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0.000224</v>
+        <v>1.16</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>1.262949582</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>6.18</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.000902</v>
+        <v>0.002883</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>0.054080862</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>219</v>
+        <v>0.031655</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>1.293338347</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>216</v>
+        <v>2404</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>2473</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.000202</v>
+        <v>0.002567</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.0013</v>
+        <v>0.033368</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>0.10136105</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.000277</v>
+        <v>1.09</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0.998336759</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>7.503</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.001405</v>
+        <v>0.003983</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>0.068339715</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>339</v>
+        <v>0.034005</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0.970728677</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>332</v>
+        <v>2727</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>2973</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.031978</v>
+        <v>0.002498</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.591625</v>
+        <v>0.012052</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>16.320396288</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0.041927</v>
+        <v>1.36</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>1.599089077</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>8.519</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.598245</v>
+        <v>0.003576</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>16.995020227</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>37865</v>
+        <v>0.012098</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>1.493691923</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>37997</v>
+        <v>3216</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>3175</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.036931</v>
+        <v>0.002851</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.501011</v>
+        <v>0.136661</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>16.24855413</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.051085</v>
+        <v>0.89</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0.782840064</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>7.467</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.494715</v>
+        <v>0.003798</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>14.926744497</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>45657</v>
+        <v>0.136509</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0.805795835</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>47039</v>
+        <v>3044</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.005217</v>
+        <v>0.003219</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.098612</v>
+        <v>0.004927</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>3.196765303</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0.007063</v>
+        <v>1.83</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>3.10245991</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>18.742</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.098577</v>
+        <v>0.004226</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>3.273222407</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>6099</v>
+        <v>0.004848</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>3.801425619</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>6126</v>
+        <v>4356</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>4067</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.014847</v>
+        <v>0.003875</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.274811</v>
+        <v>0.108293</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>7.090169523</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0.019698</v>
+        <v>1.09</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0.880661572</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>7.77</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.280664</v>
+        <v>0.005264</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>7.319992311</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>16861</v>
+        <v>0.108976</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>1.136590848</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>17021</v>
+        <v>4063</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>4413</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.004187</v>
@@ -1277,516 +1571,606 @@
       <c r="D27" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="2" t="n">
         <v>3.442199394</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
+        <v>17.167</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>0.00563</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>0.603353</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>2.3</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="J27" s="2" t="n">
         <v>3.222252307</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>5490</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>5375</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.001876</v>
+        <v>0.005217</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.007932</v>
+        <v>0.098612</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>1.396337542</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0.002578</v>
+        <v>2.58</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>3.196765303</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>16.499</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.00788</v>
+        <v>0.007063</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>1.496946324</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>2427</v>
+        <v>0.098577</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>3.273222407</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>2387</v>
+        <v>6099</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>6126</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.001423</v>
+        <v>0.00543</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.253852</v>
+        <v>0.145637</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>1.131653976</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0.001941</v>
+        <v>1.82</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>2.360923641</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>13.216</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.25623</v>
+        <v>0.007147</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>1.2877303</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>2040</v>
+        <v>0.141822</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>2.863286609</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>1902</v>
+        <v>6174</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>6447</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.003219</v>
+        <v>0.008383</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.004927</v>
+        <v>0.136497</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>3.10245991</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0.004226</v>
+        <v>2.48</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>2.845112103</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>17.475</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.004848</v>
+        <v>0.011219</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>3.801425619</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>4356</v>
+        <v>0.12941</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>2.839508927</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>4067</v>
+        <v>8572</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>9328</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.028339</v>
+        <v>0.007823</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1.02118</v>
+        <v>0.059475</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>9.008953774</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0.035201</v>
+        <v>4.01</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>5.601214754</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>25.397</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.975951</v>
+        <v>0.010704</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>9.924711214</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>24906</v>
+        <v>0.057773</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>4.894634637</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>25795</v>
+        <v>9765</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>9772</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.003875</v>
+        <v>0.010484</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.108293</v>
+        <v>0.302596</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>0.880661572</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0.005264</v>
+        <v>2.63</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>3.323043486</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>32.413</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.108976</v>
+        <v>0.013666</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>1.136590848</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>4063</v>
+        <v>0.302799</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>3.535480606</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>4413</v>
+        <v>11038</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>11751</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.032568</v>
+        <v>0.014847</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.557015</v>
+        <v>0.274811</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>9.54</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>15.224546006</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.043579</v>
+        <v>5.38</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>7.090169523</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>57.196</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.556669</v>
+        <v>0.019698</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>16.07630027</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>37822</v>
+        <v>0.280664</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>7.319992311</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>38672</v>
+        <v>16861</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>17021</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.010484</v>
+        <v>0.016205</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.302596</v>
+        <v>0.189385</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>3.323043486</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0.013666</v>
+        <v>5.87</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>7.087011609</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>40.473</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.302799</v>
+        <v>0.021162</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>3.535480606</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>11038</v>
+        <v>0.189558</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>8.745687717</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>11751</v>
+        <v>17677</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>17890</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.00543</v>
+        <v>0.028339</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.145637</v>
+        <v>1.02118</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>2.360923641</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0.007147</v>
+        <v>5.16</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>9.008953774</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>71.276</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.141822</v>
+        <v>0.035201</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>2.863286609</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>6174</v>
+        <v>0.975951</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>9.924711214</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>6447</v>
+        <v>24906</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>25795</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.000581</v>
+        <v>0.033581</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.003714</v>
+        <v>1.776848</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>0.318194264</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0.000783</v>
+        <v>0.87</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>15.094641781</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>95.424</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.003701</v>
+        <v>0.047596</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>0.395465836</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>738</v>
+        <v>1.776186</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>17.705312361</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>740</v>
+        <v>35765</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>36946</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.033581</v>
+        <v>0.031978</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1.776848</v>
+        <v>0.591625</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>15.094641781</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0.047596</v>
+        <v>8.02</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>16.320396288</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>81.51</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1.776186</v>
+        <v>0.041927</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>17.705312361</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>35765</v>
+        <v>0.598245</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>16.995020227</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>36946</v>
+        <v>37865</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>37997</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.05558</v>
+        <v>0.032568</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>2.537321</v>
+        <v>0.557015</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>16.050424624</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0.07604</v>
+        <v>9.54</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>15.224546006</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>82.978</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>2.425702</v>
+        <v>0.043579</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>18.458620442</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>50279</v>
+        <v>0.556669</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>16.07630027</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>53639</v>
+        <v>37822</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>38672</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1.2E-005</v>
+        <v>0.038324</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>8E-006</v>
+        <v>0.687196</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>0.040818851</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1.7E-005</v>
+        <v>3.02</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>19.215156127</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>139.148</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>6E-006</v>
+        <v>0.050081</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>0.045520323</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>19</v>
+        <v>0.665728</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>17.860952683</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>14</v>
+        <v>43685</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>43521</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1.1E-005</v>
+        <v>0.036931</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>7E-006</v>
+        <v>0.501011</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>0.033981888</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1.7E-005</v>
+        <v>10.76</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>16.24855413</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>83.305</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>8E-006</v>
+        <v>0.051085</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I40" s="1" t="n">
-        <v>0.03569514</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>19</v>
+        <v>0.494715</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>14.926744497</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>14</v>
+        <v>45657</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>47039</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.016205</v>
+        <v>0.05558</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.189385</v>
+        <v>2.537321</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>7.087011609</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0.021162</v>
+        <v>12.11</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>16.050424624</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>159.376</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.189558</v>
+        <v>0.07604</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>8.745687717</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>17677</v>
+        <v>2.425702</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>18.458620442</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>17890</v>
+        <v>50279</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>53639</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/reported-results/dacapo/table-mc-results.xlsx
+++ b/reported-results/dacapo/table-mc-results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">Benchmark </t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hitting-Prism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitting-Storm</t>
   </si>
   <si>
     <t xml:space="preserve"> DS-Ours         </t>
@@ -476,20 +479,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,7 +514,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
@@ -520,10 +523,10 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
@@ -532,10 +535,13 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.2E-005</v>
@@ -552,31 +558,34 @@
       <c r="F2" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>1.7E-005</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>6E-006</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>0.045520323</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>14</v>
+      <c r="N2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1.1E-005</v>
@@ -593,31 +602,34 @@
       <c r="F3" s="1" t="n">
         <v>0.062</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>1.7E-005</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>8E-006</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>0.11</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="K3" s="2" t="n">
         <v>0.03569514</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>16</v>
+      <c r="N3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>7.6E-005</v>
@@ -634,31 +646,34 @@
       <c r="F4" s="1" t="n">
         <v>0.118</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>0.000104</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>0.000197</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="K4" s="2" t="n">
         <v>0.036460431</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>18</v>
+      <c r="N4" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.000172</v>
@@ -675,31 +690,34 @@
       <c r="F5" s="1" t="n">
         <v>0.309</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>0.000234</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>0.000619</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>0.12</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="K5" s="2" t="n">
         <v>0.059313988</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>20</v>
+      <c r="N5" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.000168</v>
@@ -716,31 +734,34 @@
       <c r="F6" s="1" t="n">
         <v>0.373</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>0.000224</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>0.000902</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="K6" s="2" t="n">
         <v>0.054080862</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>216</v>
       </c>
-      <c r="M6" s="0" t="s">
-        <v>22</v>
+      <c r="N6" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.000168</v>
@@ -757,31 +778,34 @@
       <c r="F7" s="1" t="n">
         <v>0.514</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>0.000238</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>0.000588</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>0.13</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="K7" s="2" t="n">
         <v>0.160454373</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>244</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>24</v>
+      <c r="N7" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.000304</v>
@@ -798,31 +822,34 @@
       <c r="F8" s="1" t="n">
         <v>0.576</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>0.00039</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>0.00584</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="K8" s="2" t="n">
         <v>0.025602262</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="M8" s="0" t="s">
-        <v>26</v>
+      <c r="N8" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.000335</v>
@@ -839,31 +866,34 @@
       <c r="F9" s="1" t="n">
         <v>0.427</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>0.0004</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>0.005723</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>0.12</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="K9" s="2" t="n">
         <v>0.041736328</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="M9" s="0" t="s">
-        <v>28</v>
+      <c r="N9" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.000202</v>
@@ -880,31 +910,34 @@
       <c r="F10" s="1" t="n">
         <v>0.668</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>0.000277</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>0.001405</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="K10" s="2" t="n">
         <v>0.068339715</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>339</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>332</v>
       </c>
-      <c r="M10" s="0" t="s">
-        <v>30</v>
+      <c r="N10" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.000325</v>
@@ -921,31 +954,34 @@
       <c r="F11" s="1" t="n">
         <v>1.481</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>0.000434</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>0.001392</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="K11" s="2" t="n">
         <v>0.185827283</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>453</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>437</v>
       </c>
-      <c r="M11" s="0" t="s">
-        <v>32</v>
+      <c r="N11" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.000482</v>
@@ -962,31 +998,34 @@
       <c r="F12" s="1" t="n">
         <v>1.49</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <v>0.000666</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>0.002139</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="K12" s="2" t="n">
         <v>0.351454256</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>689</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>677</v>
       </c>
-      <c r="M12" s="0" t="s">
-        <v>34</v>
+      <c r="N12" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.000581</v>
@@ -1003,31 +1042,34 @@
       <c r="F13" s="1" t="n">
         <v>1.613</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>0.000783</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>0.003701</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>0.36</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="K13" s="2" t="n">
         <v>0.395465836</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>738</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>740</v>
       </c>
-      <c r="M13" s="0" t="s">
-        <v>36</v>
+      <c r="N13" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.000595</v>
@@ -1044,31 +1086,34 @@
       <c r="F14" s="1" t="n">
         <v>1.687</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>0.000816</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>0.03912</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>0.32</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="K14" s="2" t="n">
         <v>0.271856437</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>776</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>758</v>
       </c>
-      <c r="M14" s="0" t="s">
-        <v>38</v>
+      <c r="N14" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.000841</v>
@@ -1085,31 +1130,34 @@
       <c r="F15" s="1" t="n">
         <v>2.496</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>0.001114</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>0.030958</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>0.31</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="K15" s="2" t="n">
         <v>0.223241016</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>936</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>967</v>
       </c>
-      <c r="M15" s="0" t="s">
-        <v>40</v>
+      <c r="N15" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.001039</v>
@@ -1126,31 +1174,34 @@
       <c r="F16" s="1" t="n">
         <v>2.223</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <v>0.001603</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.011775</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>5.81</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="K16" s="2" t="n">
         <v>0.473569089</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>1293</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>1311</v>
       </c>
-      <c r="M16" s="0" t="s">
-        <v>42</v>
+      <c r="N16" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.001388</v>
@@ -1167,31 +1218,34 @@
       <c r="F17" s="1" t="n">
         <v>4.485</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <v>0.001898</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.002781</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>1.12</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="K17" s="2" t="n">
         <v>1.24184359</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>1899</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>1849</v>
       </c>
-      <c r="M17" s="0" t="s">
-        <v>44</v>
+      <c r="N17" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.001423</v>
@@ -1208,31 +1262,34 @@
       <c r="F18" s="1" t="n">
         <v>7.022</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <v>0.001941</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>0.25623</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>1.42</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="K18" s="2" t="n">
         <v>1.2877303</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>2040</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>1902</v>
       </c>
-      <c r="M18" s="0" t="s">
-        <v>46</v>
+      <c r="N18" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.00189</v>
@@ -1249,31 +1306,34 @@
       <c r="F19" s="1" t="n">
         <v>4.255</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>0.002546</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.036825</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.42</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="K19" s="2" t="n">
         <v>0.888226819</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>2231</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>2303</v>
       </c>
-      <c r="M19" s="0" t="s">
-        <v>48</v>
+      <c r="N19" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.001876</v>
@@ -1290,31 +1350,34 @@
       <c r="F20" s="1" t="n">
         <v>8.372</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H20" s="0" t="n">
         <v>0.002578</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>0.00788</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>1.65</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="K20" s="2" t="n">
         <v>1.496946324</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>2427</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>2387</v>
       </c>
-      <c r="M20" s="0" t="s">
-        <v>50</v>
+      <c r="N20" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.002169</v>
@@ -1331,31 +1394,34 @@
       <c r="F21" s="1" t="n">
         <v>6.18</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>0.002883</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>0.031655</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>1.42</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="K21" s="2" t="n">
         <v>1.293338347</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>2404</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>2473</v>
       </c>
-      <c r="M21" s="0" t="s">
-        <v>52</v>
+      <c r="N21" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.002567</v>
@@ -1372,31 +1438,34 @@
       <c r="F22" s="1" t="n">
         <v>7.503</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="H22" s="0" t="n">
         <v>0.003983</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>0.034005</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>1.24</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="K22" s="2" t="n">
         <v>0.970728677</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>2727</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>2973</v>
       </c>
-      <c r="M22" s="0" t="s">
-        <v>54</v>
+      <c r="N22" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.002498</v>
@@ -1413,31 +1482,34 @@
       <c r="F23" s="1" t="n">
         <v>8.519</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
+        <v>0.683</v>
+      </c>
+      <c r="H23" s="0" t="n">
         <v>0.003576</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>0.012098</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>1.22</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="K23" s="2" t="n">
         <v>1.493691923</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>3216</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>3175</v>
       </c>
-      <c r="M23" s="0" t="s">
-        <v>56</v>
+      <c r="N23" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.002851</v>
@@ -1454,31 +1526,34 @@
       <c r="F24" s="1" t="n">
         <v>7.467</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="H24" s="0" t="n">
         <v>0.003798</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>0.136509</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>0.92</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="K24" s="2" t="n">
         <v>0.805795835</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>3044</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>3262</v>
       </c>
-      <c r="M24" s="0" t="s">
-        <v>58</v>
+      <c r="N24" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.003219</v>
@@ -1495,31 +1570,34 @@
       <c r="F25" s="1" t="n">
         <v>18.742</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>0.004226</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>0.004848</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>1.85</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="K25" s="2" t="n">
         <v>3.801425619</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>4356</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>4067</v>
       </c>
-      <c r="M25" s="0" t="s">
-        <v>60</v>
+      <c r="N25" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.003875</v>
@@ -1536,31 +1614,34 @@
       <c r="F26" s="1" t="n">
         <v>7.77</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>0.005264</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>0.108976</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>1.07</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="K26" s="2" t="n">
         <v>1.136590848</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>4063</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>4413</v>
       </c>
-      <c r="M26" s="0" t="s">
-        <v>62</v>
+      <c r="N26" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.004187</v>
@@ -1577,31 +1658,34 @@
       <c r="F27" s="1" t="n">
         <v>17.167</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="H27" s="0" t="n">
         <v>0.00563</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>0.603353</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>2.3</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="K27" s="2" t="n">
         <v>3.222252307</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>5490</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>5375</v>
       </c>
-      <c r="M27" s="0" t="s">
-        <v>64</v>
+      <c r="N27" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.005217</v>
@@ -1618,31 +1702,34 @@
       <c r="F28" s="1" t="n">
         <v>16.499</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
+        <v>2.306</v>
+      </c>
+      <c r="H28" s="0" t="n">
         <v>0.007063</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>0.098577</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>2.41</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="K28" s="2" t="n">
         <v>3.273222407</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>6099</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>6126</v>
       </c>
-      <c r="M28" s="0" t="s">
-        <v>66</v>
+      <c r="N28" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.00543</v>
@@ -1659,31 +1746,34 @@
       <c r="F29" s="1" t="n">
         <v>13.216</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>0.007147</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>0.141822</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>2.03</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="K29" s="2" t="n">
         <v>2.863286609</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>6174</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>6447</v>
       </c>
-      <c r="M29" s="0" t="s">
-        <v>68</v>
+      <c r="N29" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.008383</v>
@@ -1700,31 +1790,34 @@
       <c r="F30" s="1" t="n">
         <v>17.475</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="1" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="H30" s="0" t="n">
         <v>0.011219</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>0.12941</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>2.25</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="K30" s="2" t="n">
         <v>2.839508927</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>8572</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>9328</v>
       </c>
-      <c r="M30" s="0" t="s">
-        <v>70</v>
+      <c r="N30" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.007823</v>
@@ -1741,31 +1834,34 @@
       <c r="F31" s="1" t="n">
         <v>25.397</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="H31" s="0" t="n">
         <v>0.010704</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>0.057773</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>3.71</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="K31" s="2" t="n">
         <v>4.894634637</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>9765</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>9772</v>
       </c>
-      <c r="M31" s="0" t="s">
-        <v>72</v>
+      <c r="N31" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.010484</v>
@@ -1782,31 +1878,34 @@
       <c r="F32" s="1" t="n">
         <v>32.413</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="1" t="n">
+        <v>2.597</v>
+      </c>
+      <c r="H32" s="0" t="n">
         <v>0.013666</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>0.302799</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>2.6</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="K32" s="2" t="n">
         <v>3.535480606</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>11038</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>11751</v>
       </c>
-      <c r="M32" s="0" t="s">
-        <v>74</v>
+      <c r="N32" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.014847</v>
@@ -1823,31 +1922,34 @@
       <c r="F33" s="1" t="n">
         <v>57.196</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="1" t="n">
+        <v>7.691</v>
+      </c>
+      <c r="H33" s="0" t="n">
         <v>0.019698</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="I33" s="0" t="n">
         <v>0.280664</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="J33" s="0" t="n">
         <v>4.35</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="K33" s="2" t="n">
         <v>7.319992311</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="L33" s="0" t="n">
         <v>16861</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="M33" s="0" t="n">
         <v>17021</v>
       </c>
-      <c r="M33" s="0" t="s">
-        <v>76</v>
+      <c r="N33" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.016205</v>
@@ -1864,31 +1966,34 @@
       <c r="F34" s="1" t="n">
         <v>40.473</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="1" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="H34" s="0" t="n">
         <v>0.021162</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="I34" s="0" t="n">
         <v>0.189558</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="J34" s="0" t="n">
         <v>6.91</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="K34" s="2" t="n">
         <v>8.745687717</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="L34" s="0" t="n">
         <v>17677</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="M34" s="0" t="n">
         <v>17890</v>
       </c>
-      <c r="M34" s="0" t="s">
-        <v>78</v>
+      <c r="N34" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.028339</v>
@@ -1905,31 +2010,34 @@
       <c r="F35" s="1" t="n">
         <v>71.276</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="1" t="n">
+        <v>6.562</v>
+      </c>
+      <c r="H35" s="0" t="n">
         <v>0.035201</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="I35" s="0" t="n">
         <v>0.975951</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="J35" s="0" t="n">
         <v>5.9</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="K35" s="2" t="n">
         <v>9.924711214</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="L35" s="0" t="n">
         <v>24906</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="M35" s="0" t="n">
         <v>25795</v>
       </c>
-      <c r="M35" s="0" t="s">
-        <v>80</v>
+      <c r="N35" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.033581</v>
@@ -1946,31 +2054,34 @@
       <c r="F36" s="1" t="n">
         <v>95.424</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="1" t="n">
+        <v>12.419</v>
+      </c>
+      <c r="H36" s="0" t="n">
         <v>0.047596</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="I36" s="0" t="n">
         <v>1.776186</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="J36" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="K36" s="2" t="n">
         <v>17.705312361</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="L36" s="0" t="n">
         <v>35765</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="M36" s="0" t="n">
         <v>36946</v>
       </c>
-      <c r="M36" s="0" t="s">
-        <v>82</v>
+      <c r="N36" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.031978</v>
@@ -1987,31 +2098,34 @@
       <c r="F37" s="1" t="n">
         <v>81.51</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="1" t="n">
+        <v>7.723</v>
+      </c>
+      <c r="H37" s="0" t="n">
         <v>0.041927</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="I37" s="0" t="n">
         <v>0.598245</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="J37" s="0" t="n">
         <v>10.19</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="K37" s="2" t="n">
         <v>16.995020227</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="L37" s="0" t="n">
         <v>37865</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="M37" s="0" t="n">
         <v>37997</v>
       </c>
-      <c r="M37" s="0" t="s">
-        <v>84</v>
+      <c r="N37" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.032568</v>
@@ -2028,31 +2142,34 @@
       <c r="F38" s="1" t="n">
         <v>82.978</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="1" t="n">
+        <v>10.466</v>
+      </c>
+      <c r="H38" s="0" t="n">
         <v>0.043579</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="I38" s="0" t="n">
         <v>0.556669</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="J38" s="0" t="n">
         <v>10.01</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="K38" s="2" t="n">
         <v>16.07630027</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="L38" s="0" t="n">
         <v>37822</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="M38" s="0" t="n">
         <v>38672</v>
       </c>
-      <c r="M38" s="0" t="s">
-        <v>86</v>
+      <c r="N38" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.038324</v>
@@ -2069,31 +2186,34 @@
       <c r="F39" s="1" t="n">
         <v>139.148</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="1" t="n">
+        <v>8.297</v>
+      </c>
+      <c r="H39" s="0" t="n">
         <v>0.050081</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="I39" s="0" t="n">
         <v>0.665728</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="J39" s="0" t="n">
         <v>2.4</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="K39" s="2" t="n">
         <v>17.860952683</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="L39" s="0" t="n">
         <v>43685</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="M39" s="0" t="n">
         <v>43521</v>
       </c>
-      <c r="M39" s="0" t="s">
-        <v>88</v>
+      <c r="N39" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.036931</v>
@@ -2110,31 +2230,34 @@
       <c r="F40" s="1" t="n">
         <v>83.305</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="1" t="n">
+        <v>12.388</v>
+      </c>
+      <c r="H40" s="0" t="n">
         <v>0.051085</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="I40" s="0" t="n">
         <v>0.494715</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="J40" s="0" t="n">
         <v>12.6</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="K40" s="2" t="n">
         <v>14.926744497</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="L40" s="0" t="n">
         <v>45657</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="M40" s="0" t="n">
         <v>47039</v>
       </c>
-      <c r="M40" s="0" t="s">
-        <v>90</v>
+      <c r="N40" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.05558</v>
@@ -2151,26 +2274,29 @@
       <c r="F41" s="1" t="n">
         <v>159.376</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="1" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="H41" s="0" t="n">
         <v>0.07604</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="I41" s="0" t="n">
         <v>2.425702</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="J41" s="0" t="n">
         <v>13.31</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="K41" s="2" t="n">
         <v>18.458620442</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="L41" s="0" t="n">
         <v>50279</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="M41" s="0" t="n">
         <v>53639</v>
       </c>
-      <c r="M41" s="0" t="s">
-        <v>92</v>
+      <c r="N41" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
